--- a/va_facility_data_2025-02-20/Louis Stokes Cleveland Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Louis%20Stokes%20Cleveland%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Louis Stokes Cleveland Department of Veterans Affairs Medical Center - Facility Data.xlsx"; filename*=UTF-8''Louis%20Stokes%20Cleveland%20Department%20of%20Veterans%20Affairs%20Medical%20Center%20-%20Facility%20Data.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="R09de51594761484a924b1c55290e5013"/>
-    <x:sheet name="Safe Care" sheetId="2" r:id="R2c1b0bbf37af4f8387017c86fa251ee9"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="Ra96507a83fc04231870a932d627e0929"/>
-    <x:sheet name="Wait Times" sheetId="4" r:id="R2c617051210643948faf7e0721302e13"/>
-    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="Rbc1a6c163eb1452f9b5868f236b0c77e"/>
-    <x:sheet name="Outpatient Score" sheetId="6" r:id="Red014e7ea28746fe8f955aa163ec227e"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rc1d8b28a438b47ada93a072f6472a415"/>
+    <x:sheet name="Safe Care" sheetId="2" r:id="R6ba848175f3344b18318e851f9ba124b"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="3" r:id="R49c1dd60242647409bd601351c33a747"/>
+    <x:sheet name="Wait Times" sheetId="4" r:id="R9c2f5643e0f74decb9efa6ba5a2e9ff1"/>
+    <x:sheet name="Satisfaction with Care" sheetId="5" r:id="R39c51931d39e4ea48311928701fe5e62"/>
+    <x:sheet name="Outpatient Score" sheetId="6" r:id="R187d0423e9bc49dc819a3f014187c300"/>
   </x:sheets>
 </x:workbook>
 </file>
